--- a/Code/Results/Cases/Case_4_220/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_220/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.31649430221147</v>
+        <v>32.73910791935287</v>
       </c>
       <c r="C2">
-        <v>23.14361773712889</v>
+        <v>21.13787301585845</v>
       </c>
       <c r="D2">
-        <v>7.335844753963262</v>
+        <v>11.90132739170498</v>
       </c>
       <c r="E2">
-        <v>5.788651275314068</v>
+        <v>10.33933697746992</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.158472336052053</v>
+        <v>3.88736085191548</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>66.74079369079531</v>
+        <v>59.88686617569997</v>
       </c>
       <c r="J2">
-        <v>4.516119372656297</v>
+        <v>6.729235125382684</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.98085121448576</v>
+        <v>16.54618218790092</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.08985061618256</v>
+        <v>32.776308991348</v>
       </c>
       <c r="C3">
-        <v>21.65935553564232</v>
+        <v>20.83973186987473</v>
       </c>
       <c r="D3">
-        <v>7.244311706566354</v>
+        <v>11.92199023488689</v>
       </c>
       <c r="E3">
-        <v>5.831997182765717</v>
+        <v>10.35763698239853</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.179312577028639</v>
+        <v>3.893693232918658</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>63.26492570122355</v>
+        <v>58.84916305600157</v>
       </c>
       <c r="J3">
-        <v>4.441386386189834</v>
+        <v>6.712316352058839</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.72487058362871</v>
+        <v>16.55879517701753</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.36027059253495</v>
+        <v>32.81275502645713</v>
       </c>
       <c r="C4">
-        <v>20.7353271136955</v>
+        <v>20.66189095383691</v>
       </c>
       <c r="D4">
-        <v>7.19398617083828</v>
+        <v>11.93670869575271</v>
       </c>
       <c r="E4">
-        <v>5.859506939224795</v>
+        <v>10.36951598078669</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.192164612132799</v>
+        <v>3.897769505781398</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>61.09965546239648</v>
+        <v>58.20450931094133</v>
       </c>
       <c r="J4">
-        <v>4.395924730547284</v>
+        <v>6.701702831340215</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.57683576678049</v>
+        <v>16.5698669429226</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.06875439670093</v>
+        <v>32.83100876448321</v>
       </c>
       <c r="C5">
-        <v>20.3554708968866</v>
+        <v>20.59081437087639</v>
       </c>
       <c r="D5">
-        <v>7.174870032050394</v>
+        <v>11.94321644243216</v>
       </c>
       <c r="E5">
-        <v>5.870952968711453</v>
+        <v>10.37451899172855</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.197428915309479</v>
+        <v>3.899478191902513</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>60.20912058735555</v>
+        <v>57.94011763452054</v>
       </c>
       <c r="J5">
-        <v>4.377467539184962</v>
+        <v>6.697320752477663</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.51868663005424</v>
+        <v>16.57521326215322</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.02069657220654</v>
+        <v>32.83424462754301</v>
       </c>
       <c r="C6">
-        <v>20.29219581716588</v>
+        <v>20.57909876522485</v>
       </c>
       <c r="D6">
-        <v>7.171777543972814</v>
+        <v>11.94432781394608</v>
       </c>
       <c r="E6">
-        <v>5.872868088901859</v>
+        <v>10.37535955351036</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.198305022444482</v>
+        <v>3.89976479864112</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>60.0607493002649</v>
+        <v>57.89611931928974</v>
       </c>
       <c r="J6">
-        <v>4.374405893843686</v>
+        <v>6.696589660519334</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.50915922229974</v>
+        <v>16.57615134632719</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.35631573671566</v>
+        <v>32.81298745658004</v>
       </c>
       <c r="C7">
-        <v>20.73021767424347</v>
+        <v>20.66092663492688</v>
       </c>
       <c r="D7">
-        <v>7.19372283471527</v>
+        <v>11.93679439839871</v>
       </c>
       <c r="E7">
-        <v>5.859660337402887</v>
+        <v>10.36958279549955</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.192235483326137</v>
+        <v>3.897792356762376</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>61.08767874918685</v>
+        <v>58.20095021380786</v>
       </c>
       <c r="J7">
-        <v>4.395675577699487</v>
+        <v>6.701643964244873</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.57604288352807</v>
+        <v>16.56993566951174</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.8885275904104</v>
+        <v>32.74910038995573</v>
       </c>
       <c r="C8">
-        <v>22.63435704259377</v>
+        <v>21.03404132427228</v>
       </c>
       <c r="D8">
-        <v>7.303009872694577</v>
+        <v>11.9080297613208</v>
       </c>
       <c r="E8">
-        <v>5.803417792146211</v>
+        <v>10.34551378691908</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.165654798307469</v>
+        <v>3.889505358075611</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>65.54845983633642</v>
+        <v>59.53073891889704</v>
       </c>
       <c r="J8">
-        <v>4.490238384284131</v>
+        <v>6.723448101085851</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.8906129001841</v>
+        <v>16.54983929631168</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.09533544155765</v>
+        <v>32.73251113278619</v>
       </c>
       <c r="C9">
-        <v>26.28219171653813</v>
+        <v>21.80335794952994</v>
       </c>
       <c r="D9">
-        <v>7.56845715158251</v>
+        <v>11.86778283379565</v>
       </c>
       <c r="E9">
-        <v>5.699692223475359</v>
+        <v>10.30338684440447</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.113271061505691</v>
+        <v>3.874735855847342</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>74.08263100345374</v>
+        <v>62.07059486452516</v>
       </c>
       <c r="J9">
-        <v>4.681169567099965</v>
+        <v>6.764433948211917</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.58683891388876</v>
+        <v>16.53692256434059</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.90441093922934</v>
+        <v>32.78743870146994</v>
       </c>
       <c r="C10">
-        <v>28.94600209265457</v>
+        <v>22.38635004093894</v>
       </c>
       <c r="D10">
-        <v>7.802415387893963</v>
+        <v>11.84812242383956</v>
       </c>
       <c r="E10">
-        <v>5.626614793624386</v>
+        <v>10.27549034648489</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.073386183394752</v>
+        <v>3.864771232823129</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>80.30017396904518</v>
+        <v>63.88452460431567</v>
       </c>
       <c r="J10">
-        <v>4.828635681949764</v>
+        <v>6.793489856169664</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.15945292449967</v>
+        <v>16.54369732559697</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.26548086239677</v>
+        <v>32.82712586863737</v>
       </c>
       <c r="C11">
-        <v>30.21024536443727</v>
+        <v>22.6543178279533</v>
       </c>
       <c r="D11">
-        <v>7.919664451715347</v>
+        <v>11.84134143545017</v>
       </c>
       <c r="E11">
-        <v>5.593809219735026</v>
+        <v>10.26345457184539</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.054553911513365</v>
+        <v>3.860426995267983</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>83.14618038159342</v>
+        <v>64.69627958401756</v>
       </c>
       <c r="J11">
-        <v>4.898502741860841</v>
+        <v>6.806484013578262</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.43741606181206</v>
+        <v>16.55033062920607</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.78767631662678</v>
+        <v>32.84427389187501</v>
       </c>
       <c r="C12">
-        <v>30.69429491177233</v>
+        <v>22.75609542493532</v>
       </c>
       <c r="D12">
-        <v>7.965890245029887</v>
+        <v>11.8390854529178</v>
       </c>
       <c r="E12">
-        <v>5.581424736451962</v>
+        <v>10.25899041948281</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.047279406084721</v>
+        <v>3.858808800751699</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>84.23000550758113</v>
+        <v>65.00157292650506</v>
       </c>
       <c r="J12">
-        <v>4.925502811771925</v>
+        <v>6.811372800808183</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.54569291746765</v>
+        <v>16.55335425823908</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.67486571514279</v>
+        <v>32.84048644334106</v>
       </c>
       <c r="C13">
-        <v>30.58990464008381</v>
+        <v>22.73416374112422</v>
       </c>
       <c r="D13">
-        <v>7.955848266633181</v>
+        <v>11.83955743747317</v>
       </c>
       <c r="E13">
-        <v>5.584090701388025</v>
+        <v>10.25994770381495</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.048853317449761</v>
+        <v>3.859156116882651</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>83.99624233499856</v>
+        <v>64.93591861641737</v>
       </c>
       <c r="J13">
-        <v>4.919660945957612</v>
+        <v>6.810321322936497</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.52222937937982</v>
+        <v>16.55268029194684</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.30829040369768</v>
+        <v>32.82849415095021</v>
       </c>
       <c r="C14">
-        <v>30.25000808447076</v>
+        <v>22.66268556634896</v>
       </c>
       <c r="D14">
-        <v>7.923429032262506</v>
+        <v>11.84114958020333</v>
       </c>
       <c r="E14">
-        <v>5.5927897329679</v>
+        <v>10.26308543209058</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.053958603459958</v>
+        <v>3.860293328354541</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>83.23520003799908</v>
+        <v>64.72143930577552</v>
       </c>
       <c r="J14">
-        <v>4.900712191921905</v>
+        <v>6.806886852859131</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.44626005753493</v>
+        <v>16.55056912388014</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.08471668476761</v>
+        <v>32.82142464023489</v>
       </c>
       <c r="C15">
-        <v>30.04218599452761</v>
+        <v>22.61893997769675</v>
       </c>
       <c r="D15">
-        <v>7.903818549960316</v>
+        <v>11.84216544734599</v>
       </c>
       <c r="E15">
-        <v>5.598122308578846</v>
+        <v>10.26501954501519</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.057065560080598</v>
+        <v>3.860993395141843</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>82.76996180821422</v>
+        <v>64.58978600989256</v>
       </c>
       <c r="J15">
-        <v>4.889181243375385</v>
+        <v>6.804779006784674</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.40013764472086</v>
+        <v>16.54934264281886</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.81627222401553</v>
+        <v>32.7851413938881</v>
       </c>
       <c r="C16">
-        <v>28.86647306833527</v>
+        <v>22.3688852912555</v>
       </c>
       <c r="D16">
-        <v>7.794991939325262</v>
+        <v>11.84860916869045</v>
       </c>
       <c r="E16">
-        <v>5.628765523402968</v>
+        <v>10.27629003294489</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.074599579918391</v>
+        <v>3.865058913984839</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>80.11481353432505</v>
+        <v>63.83118972630598</v>
       </c>
       <c r="J16">
-        <v>4.824136937597354</v>
+        <v>6.792636187213681</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.14167852463092</v>
+        <v>16.54333538330761</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.04758487416026</v>
+        <v>32.7666527208408</v>
       </c>
       <c r="C17">
-        <v>28.17082324956457</v>
+        <v>22.21612543771091</v>
       </c>
       <c r="D17">
-        <v>7.731170370610922</v>
+        <v>11.8531167046215</v>
       </c>
       <c r="E17">
-        <v>5.647660166511124</v>
+        <v>10.28337132796867</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.08515224675938</v>
+        <v>3.867601126657606</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>78.49265927782363</v>
+        <v>63.3622553484145</v>
       </c>
       <c r="J17">
-        <v>4.785035878645619</v>
+        <v>6.785129940971912</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.98790864248755</v>
+        <v>16.54056056254623</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.60826283940812</v>
+        <v>32.75740204970498</v>
       </c>
       <c r="C18">
-        <v>27.77155167691753</v>
+        <v>22.12852745364939</v>
       </c>
       <c r="D18">
-        <v>7.695460411537303</v>
+        <v>11.85591282999476</v>
       </c>
       <c r="E18">
-        <v>5.658570790605967</v>
+        <v>10.28750593908035</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.091160322575903</v>
+        <v>3.869081119194723</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>77.56102431005625</v>
+        <v>63.09128416810283</v>
       </c>
       <c r="J18">
-        <v>4.762797402925723</v>
+        <v>6.780791488254359</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.90107124733636</v>
+        <v>16.53929879088013</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.45994212869055</v>
+        <v>32.75450733842246</v>
       </c>
       <c r="C19">
-        <v>27.63646721354825</v>
+        <v>22.09891673541552</v>
       </c>
       <c r="D19">
-        <v>7.683534125880506</v>
+        <v>11.85689447630519</v>
       </c>
       <c r="E19">
-        <v>5.662272988150538</v>
+        <v>10.28891645133877</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.093185128725647</v>
+        <v>3.869585280804816</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>77.24573655373459</v>
+        <v>62.9993282508129</v>
       </c>
       <c r="J19">
-        <v>4.755307351473636</v>
+        <v>6.779318936109588</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.87193279086595</v>
+        <v>16.53892894490227</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.12910875416179</v>
+        <v>32.76847763330395</v>
       </c>
       <c r="C20">
-        <v>28.24477791919212</v>
+        <v>22.23236019245271</v>
       </c>
       <c r="D20">
-        <v>7.737859233686952</v>
+        <v>11.85261580091817</v>
       </c>
       <c r="E20">
-        <v>5.645644520327851</v>
+        <v>10.28261113698175</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.084035545659845</v>
+        <v>3.867328665619763</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>78.66517489830368</v>
+        <v>63.41230512101438</v>
       </c>
       <c r="J20">
-        <v>4.789171336062751</v>
+        <v>6.785931170828609</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.00410825648438</v>
+        <v>16.54082134678245</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.41575630937288</v>
+        <v>32.83195903017305</v>
       </c>
       <c r="C21">
-        <v>30.34976177190531</v>
+        <v>22.68367292152777</v>
       </c>
       <c r="D21">
-        <v>7.932899218758928</v>
+        <v>11.84067345981995</v>
       </c>
       <c r="E21">
-        <v>5.590233799333444</v>
+        <v>10.26216127135243</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.052463361138759</v>
+        <v>3.859958574537006</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>83.45853621192381</v>
+        <v>64.78449541744499</v>
       </c>
       <c r="J21">
-        <v>4.906261800185576</v>
+        <v>6.807896500910769</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.46848728037609</v>
+        <v>16.55117532957909</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.95147603877338</v>
+        <v>32.88580148072856</v>
       </c>
       <c r="C22">
-        <v>31.76562279464654</v>
+        <v>22.98036209218345</v>
       </c>
       <c r="D22">
-        <v>8.071206033914882</v>
+        <v>11.83468639099196</v>
       </c>
       <c r="E22">
-        <v>5.554227419290767</v>
+        <v>10.24934102363837</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.030963366783431</v>
+        <v>3.855298312247501</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>86.62952162832728</v>
+        <v>65.66898342044557</v>
       </c>
       <c r="J22">
-        <v>4.986055145794936</v>
+        <v>6.822066806514387</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.78995418965356</v>
+        <v>16.5609253711339</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.12708689138879</v>
+        <v>32.85593333857567</v>
       </c>
       <c r="C23">
-        <v>31.00778399665974</v>
+        <v>22.82188545896586</v>
       </c>
       <c r="D23">
-        <v>7.996284615173329</v>
+        <v>11.83771519492341</v>
       </c>
       <c r="E23">
-        <v>5.573435232558762</v>
+        <v>10.25613376176891</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.042535960460692</v>
+        <v>3.857771348110694</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>84.932073201112</v>
+        <v>65.19809715510134</v>
       </c>
       <c r="J23">
-        <v>4.943108792052427</v>
+        <v>6.81452069532397</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.616520826647</v>
+        <v>16.55544835771899</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.09224384619601</v>
+        <v>32.76764829644426</v>
       </c>
       <c r="C24">
-        <v>28.21134105812673</v>
+        <v>22.22501974977407</v>
       </c>
       <c r="D24">
-        <v>7.734832159448062</v>
+        <v>11.85284162200574</v>
       </c>
       <c r="E24">
-        <v>5.646555643155055</v>
+        <v>10.28295462155626</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.08454058621709</v>
+        <v>3.867451787796417</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>78.58717783800073</v>
+        <v>63.3896818871079</v>
       </c>
       <c r="J24">
-        <v>4.787300954445358</v>
+        <v>6.785569006511291</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.99677956585074</v>
+        <v>16.54070240750357</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.20320042997389</v>
+        <v>32.72526383418491</v>
       </c>
       <c r="C25">
-        <v>25.30175343005181</v>
+        <v>21.59173788602339</v>
       </c>
       <c r="D25">
-        <v>7.490466950803105</v>
+        <v>11.87693450297723</v>
       </c>
       <c r="E25">
-        <v>5.727132017723081</v>
+        <v>10.31424421351259</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.127581457271679</v>
+        <v>3.878574516541977</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>71.79056560932104</v>
+        <v>61.39189471541899</v>
       </c>
       <c r="J25">
-        <v>4.628588717195846</v>
+        <v>6.753533432594729</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.38888488116421</v>
+        <v>16.5375679012399</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_220/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_220/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32.73910791935287</v>
+        <v>24.31649430221151</v>
       </c>
       <c r="C2">
-        <v>21.13787301585845</v>
+        <v>23.14361773712884</v>
       </c>
       <c r="D2">
-        <v>11.90132739170498</v>
+        <v>7.335844753963326</v>
       </c>
       <c r="E2">
-        <v>10.33933697746992</v>
+        <v>5.788651275314128</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.88736085191548</v>
+        <v>2.158472336051684</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>59.88686617569997</v>
+        <v>66.74079369079521</v>
       </c>
       <c r="J2">
-        <v>6.729235125382684</v>
+        <v>4.516119372656364</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>16.54618218790092</v>
+        <v>10.98085121448577</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>32.776308991348</v>
+        <v>23.08985061618251</v>
       </c>
       <c r="C3">
-        <v>20.83973186987473</v>
+        <v>21.6593555356423</v>
       </c>
       <c r="D3">
-        <v>11.92199023488689</v>
+        <v>7.244311706566223</v>
       </c>
       <c r="E3">
-        <v>10.35763698239853</v>
+        <v>5.831997182765678</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.893693232918658</v>
+        <v>2.179312577028792</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>58.84916305600157</v>
+        <v>63.26492570122367</v>
       </c>
       <c r="J3">
-        <v>6.712316352058839</v>
+        <v>4.441386386189898</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.55879517701753</v>
+        <v>10.72487058362873</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>32.81275502645713</v>
+        <v>22.36027059253495</v>
       </c>
       <c r="C4">
-        <v>20.66189095383691</v>
+        <v>20.73532711369567</v>
       </c>
       <c r="D4">
-        <v>11.93670869575271</v>
+        <v>7.193986170838214</v>
       </c>
       <c r="E4">
-        <v>10.36951598078669</v>
+        <v>5.85950693922485</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.897769505781398</v>
+        <v>2.192164612132893</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>58.20450931094133</v>
+        <v>61.09965546239705</v>
       </c>
       <c r="J4">
-        <v>6.701702831340215</v>
+        <v>4.395924730547384</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.5698669429226</v>
+        <v>10.57683576678054</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>32.83100876448321</v>
+        <v>22.06875439670073</v>
       </c>
       <c r="C5">
-        <v>20.59081437087639</v>
+        <v>20.35547089688674</v>
       </c>
       <c r="D5">
-        <v>11.94321644243216</v>
+        <v>7.174870032050432</v>
       </c>
       <c r="E5">
-        <v>10.37451899172855</v>
+        <v>5.870952968711456</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.899478191902513</v>
+        <v>2.197428915309729</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>57.94011763452054</v>
+        <v>60.20912058735625</v>
       </c>
       <c r="J5">
-        <v>6.697320752477663</v>
+        <v>4.377467539185028</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.57521326215322</v>
+        <v>10.51868663005424</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>32.83424462754301</v>
+        <v>22.02069657220649</v>
       </c>
       <c r="C6">
-        <v>20.57909876522485</v>
+        <v>20.2921958171659</v>
       </c>
       <c r="D6">
-        <v>11.94432781394608</v>
+        <v>7.17177754397271</v>
       </c>
       <c r="E6">
-        <v>10.37535955351036</v>
+        <v>5.872868088901996</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.89976479864112</v>
+        <v>2.198305022444737</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>57.89611931928974</v>
+        <v>60.06074930026551</v>
       </c>
       <c r="J6">
-        <v>6.696589660519334</v>
+        <v>4.374405893843853</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>16.57615134632719</v>
+        <v>10.50915922229967</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>32.81298745658004</v>
+        <v>22.3563157367157</v>
       </c>
       <c r="C7">
-        <v>20.66092663492688</v>
+        <v>20.73021767424352</v>
       </c>
       <c r="D7">
-        <v>11.93679439839871</v>
+        <v>7.193722834715254</v>
       </c>
       <c r="E7">
-        <v>10.36958279549955</v>
+        <v>5.859660337402774</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.897792356762376</v>
+        <v>2.192235483326386</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>58.20095021380786</v>
+        <v>61.08767874918733</v>
       </c>
       <c r="J7">
-        <v>6.701643964244873</v>
+        <v>4.395675577699453</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.56993566951174</v>
+        <v>10.57604288352807</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>32.74910038995573</v>
+        <v>23.88852759041029</v>
       </c>
       <c r="C8">
-        <v>21.03404132427228</v>
+        <v>22.63435704259383</v>
       </c>
       <c r="D8">
-        <v>11.9080297613208</v>
+        <v>7.303009872694719</v>
       </c>
       <c r="E8">
-        <v>10.34551378691908</v>
+        <v>5.803417792146353</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.889505358075611</v>
+        <v>2.165654798307582</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>59.53073891889704</v>
+        <v>65.548459836337</v>
       </c>
       <c r="J8">
-        <v>6.723448101085851</v>
+        <v>4.490238384284099</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.54983929631168</v>
+        <v>10.89061290018411</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32.73251113278619</v>
+        <v>27.09533544155766</v>
       </c>
       <c r="C9">
-        <v>21.80335794952994</v>
+        <v>26.28219171653793</v>
       </c>
       <c r="D9">
-        <v>11.86778283379565</v>
+        <v>7.568457151582625</v>
       </c>
       <c r="E9">
-        <v>10.30338684440447</v>
+        <v>5.699692223475521</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.874735855847342</v>
+        <v>2.11327106150587</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>62.07059486452516</v>
+        <v>74.08263100345306</v>
       </c>
       <c r="J9">
-        <v>6.764433948211917</v>
+        <v>4.681169567099933</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>16.53692256434059</v>
+        <v>11.58683891388875</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.78743870146994</v>
+        <v>29.90441093922935</v>
       </c>
       <c r="C10">
-        <v>22.38635004093894</v>
+        <v>28.9460020926546</v>
       </c>
       <c r="D10">
-        <v>11.84812242383956</v>
+        <v>7.802415387893894</v>
       </c>
       <c r="E10">
-        <v>10.27549034648489</v>
+        <v>5.626614793624329</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.864771232823129</v>
+        <v>2.073386183394629</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>63.88452460431567</v>
+        <v>80.30017396904508</v>
       </c>
       <c r="J10">
-        <v>6.793489856169664</v>
+        <v>4.828635681949731</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>16.54369732559697</v>
+        <v>12.1594529244997</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.82712586863737</v>
+        <v>31.26548086239678</v>
       </c>
       <c r="C11">
-        <v>22.6543178279533</v>
+        <v>30.21024536443724</v>
       </c>
       <c r="D11">
-        <v>11.84134143545017</v>
+        <v>7.919664451715282</v>
       </c>
       <c r="E11">
-        <v>10.26345457184539</v>
+        <v>5.593809219734901</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.860426995267983</v>
+        <v>2.054553911513378</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>64.69627958401756</v>
+        <v>83.14618038159379</v>
       </c>
       <c r="J11">
-        <v>6.806484013578262</v>
+        <v>4.898502741860771</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>16.55033062920607</v>
+        <v>12.43741606181205</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.84427389187501</v>
+        <v>31.78767631662668</v>
       </c>
       <c r="C12">
-        <v>22.75609542493532</v>
+        <v>30.69429491177224</v>
       </c>
       <c r="D12">
-        <v>11.8390854529178</v>
+        <v>7.965890245029857</v>
       </c>
       <c r="E12">
-        <v>10.25899041948281</v>
+        <v>5.581424736452003</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.858808800751699</v>
+        <v>2.047279406084817</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>65.00157292650506</v>
+        <v>84.23000550758054</v>
       </c>
       <c r="J12">
-        <v>6.811372800808183</v>
+        <v>4.925502811771927</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>16.55335425823908</v>
+        <v>12.54569291746767</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.84048644334106</v>
+        <v>31.67486571514278</v>
       </c>
       <c r="C13">
-        <v>22.73416374112422</v>
+        <v>30.58990464008372</v>
       </c>
       <c r="D13">
-        <v>11.83955743747317</v>
+        <v>7.955848266633153</v>
       </c>
       <c r="E13">
-        <v>10.25994770381495</v>
+        <v>5.584090701388034</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.859156116882651</v>
+        <v>2.048853317449911</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>64.93591861641737</v>
+        <v>83.99624233499905</v>
       </c>
       <c r="J13">
-        <v>6.810321322936497</v>
+        <v>4.919660945957673</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>16.55268029194684</v>
+        <v>12.52222937937982</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.82849415095021</v>
+        <v>31.30829040369758</v>
       </c>
       <c r="C14">
-        <v>22.66268556634896</v>
+        <v>30.25000808447061</v>
       </c>
       <c r="D14">
-        <v>11.84114958020333</v>
+        <v>7.923429032262525</v>
       </c>
       <c r="E14">
-        <v>10.26308543209058</v>
+        <v>5.592789732967949</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.860293328354541</v>
+        <v>2.053958603460191</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>64.72143930577552</v>
+        <v>83.23520003799879</v>
       </c>
       <c r="J14">
-        <v>6.806886852859131</v>
+        <v>4.900712191921943</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>16.55056912388014</v>
+        <v>12.44626005753491</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.82142464023489</v>
+        <v>31.08471668476734</v>
       </c>
       <c r="C15">
-        <v>22.61893997769675</v>
+        <v>30.04218599452724</v>
       </c>
       <c r="D15">
-        <v>11.84216544734599</v>
+        <v>7.9038185499603</v>
       </c>
       <c r="E15">
-        <v>10.26501954501519</v>
+        <v>5.598122308579019</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.860993395141843</v>
+        <v>2.057065560080819</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>64.58978600989256</v>
+        <v>82.7699618082125</v>
       </c>
       <c r="J15">
-        <v>6.804779006784674</v>
+        <v>4.889181243375447</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>16.54934264281886</v>
+        <v>12.40013764472086</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.7851413938881</v>
+        <v>29.81627222401551</v>
       </c>
       <c r="C16">
-        <v>22.3688852912555</v>
+        <v>28.86647306833509</v>
       </c>
       <c r="D16">
-        <v>11.84860916869045</v>
+        <v>7.794991939325298</v>
       </c>
       <c r="E16">
-        <v>10.27629003294489</v>
+        <v>5.628765523403008</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.865058913984839</v>
+        <v>2.074599579918242</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>63.83118972630598</v>
+        <v>80.11481353432521</v>
       </c>
       <c r="J16">
-        <v>6.792636187213681</v>
+        <v>4.824136937597419</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>16.54333538330761</v>
+        <v>12.14167852463098</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.7666527208408</v>
+        <v>29.04758487416029</v>
       </c>
       <c r="C17">
-        <v>22.21612543771091</v>
+        <v>28.17082324956436</v>
       </c>
       <c r="D17">
-        <v>11.8531167046215</v>
+        <v>7.731170370610774</v>
       </c>
       <c r="E17">
-        <v>10.28337132796867</v>
+        <v>5.647660166510981</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.867601126657606</v>
+        <v>2.085152246758993</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>63.3622553484145</v>
+        <v>78.49265927782294</v>
       </c>
       <c r="J17">
-        <v>6.785129940971912</v>
+        <v>4.785035878645623</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>16.54056056254623</v>
+        <v>11.98790864248753</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.75740204970498</v>
+        <v>28.6082628394082</v>
       </c>
       <c r="C18">
-        <v>22.12852745364939</v>
+        <v>27.77155167691752</v>
       </c>
       <c r="D18">
-        <v>11.85591282999476</v>
+        <v>7.695460411537272</v>
       </c>
       <c r="E18">
-        <v>10.28750593908035</v>
+        <v>5.658570790605951</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.869081119194723</v>
+        <v>2.09116032257574</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>63.09128416810283</v>
+        <v>77.56102431005645</v>
       </c>
       <c r="J18">
-        <v>6.780791488254359</v>
+        <v>4.762797402925794</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>16.53929879088013</v>
+        <v>11.90107124733633</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.75450733842246</v>
+        <v>28.4599421286906</v>
       </c>
       <c r="C19">
-        <v>22.09891673541552</v>
+        <v>27.63646721354851</v>
       </c>
       <c r="D19">
-        <v>11.85689447630519</v>
+        <v>7.683534125880554</v>
       </c>
       <c r="E19">
-        <v>10.28891645133877</v>
+        <v>5.662272988150669</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.869585280804816</v>
+        <v>2.093185128725622</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>62.9993282508129</v>
+        <v>77.24573655373553</v>
       </c>
       <c r="J19">
-        <v>6.779318936109588</v>
+        <v>4.755307351473701</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>16.53892894490227</v>
+        <v>11.87193279086603</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.76847763330395</v>
+        <v>29.12910875416162</v>
       </c>
       <c r="C20">
-        <v>22.23236019245271</v>
+        <v>28.24477791919193</v>
       </c>
       <c r="D20">
-        <v>11.85261580091817</v>
+        <v>7.737859233686942</v>
       </c>
       <c r="E20">
-        <v>10.28261113698175</v>
+        <v>5.645644520327854</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.867328665619763</v>
+        <v>2.084035545659695</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>63.41230512101438</v>
+        <v>78.66517489830356</v>
       </c>
       <c r="J20">
-        <v>6.785931170828609</v>
+        <v>4.789171336062625</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>16.54082134678245</v>
+        <v>12.00410825648433</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.83195903017305</v>
+        <v>31.41575630937272</v>
       </c>
       <c r="C21">
-        <v>22.68367292152777</v>
+        <v>30.34976177190522</v>
       </c>
       <c r="D21">
-        <v>11.84067345981995</v>
+        <v>7.932899218758894</v>
       </c>
       <c r="E21">
-        <v>10.26216127135243</v>
+        <v>5.590233799333561</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.859958574537006</v>
+        <v>2.052463361138786</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>64.78449541744499</v>
+        <v>83.4585362119235</v>
       </c>
       <c r="J21">
-        <v>6.807896500910769</v>
+        <v>4.906261800185606</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>16.55117532957909</v>
+        <v>12.46848728037608</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.88580148072856</v>
+        <v>32.95147603877345</v>
       </c>
       <c r="C22">
-        <v>22.98036209218345</v>
+        <v>31.76562279464672</v>
       </c>
       <c r="D22">
-        <v>11.83468639099196</v>
+        <v>8.071206033914912</v>
       </c>
       <c r="E22">
-        <v>10.24934102363837</v>
+        <v>5.554227419290727</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.855298312247501</v>
+        <v>2.030963366783281</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>65.66898342044557</v>
+        <v>86.62952162832769</v>
       </c>
       <c r="J22">
-        <v>6.822066806514387</v>
+        <v>4.986055145794902</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>16.5609253711339</v>
+        <v>12.78995418965356</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.85593333857567</v>
+        <v>32.12708689138887</v>
       </c>
       <c r="C23">
-        <v>22.82188545896586</v>
+        <v>31.00778399665993</v>
       </c>
       <c r="D23">
-        <v>11.83771519492341</v>
+        <v>7.996284615173288</v>
       </c>
       <c r="E23">
-        <v>10.25613376176891</v>
+        <v>5.573435232558705</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.857771348110694</v>
+        <v>2.04253596046072</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>65.19809715510134</v>
+        <v>84.93207320111256</v>
       </c>
       <c r="J23">
-        <v>6.81452069532397</v>
+        <v>4.943108792052459</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>16.55544835771899</v>
+        <v>12.616520826647</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.76764829644426</v>
+        <v>29.09224384619603</v>
       </c>
       <c r="C24">
-        <v>22.22501974977407</v>
+        <v>28.21134105812671</v>
       </c>
       <c r="D24">
-        <v>11.85284162200574</v>
+        <v>7.734832159447993</v>
       </c>
       <c r="E24">
-        <v>10.28295462155626</v>
+        <v>5.646555643155073</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.867451787796417</v>
+        <v>2.08454058621658</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>63.3896818871079</v>
+        <v>78.58717783800101</v>
       </c>
       <c r="J24">
-        <v>6.785569006511291</v>
+        <v>4.78730095444542</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>16.54070240750357</v>
+        <v>11.99677956585079</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.72526383418491</v>
+        <v>26.20320042997393</v>
       </c>
       <c r="C25">
-        <v>21.59173788602339</v>
+        <v>25.30175343005186</v>
       </c>
       <c r="D25">
-        <v>11.87693450297723</v>
+        <v>7.490466950802988</v>
       </c>
       <c r="E25">
-        <v>10.31424421351259</v>
+        <v>5.727132017723075</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.878574516541977</v>
+        <v>2.127581457271766</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>61.39189471541899</v>
+        <v>71.79056560932112</v>
       </c>
       <c r="J25">
-        <v>6.753533432594729</v>
+        <v>4.628588717195814</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>16.5375679012399</v>
+        <v>11.3888848811642</v>
       </c>
       <c r="M25">
         <v>0</v>
